--- a/Suivi stage/Rapport/Diagramme_Gantt.xlsx
+++ b/Suivi stage/Rapport/Diagramme_Gantt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\6.Stages\Stage\Figures_Navon\Suivi stage\Rapport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A5946B-7CC4-40B2-A72B-02E33F40B4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7948DFC9-A10C-424C-9F8A-D08237773DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1944" yWindow="768" windowWidth="16404" windowHeight="9420" xr2:uid="{B4B8E8EA-138B-473A-9D55-76C5F15EC42F}"/>
+    <workbookView xWindow="3660" yWindow="2730" windowWidth="28110" windowHeight="15825" xr2:uid="{B4B8E8EA-138B-473A-9D55-76C5F15EC42F}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="1" r:id="rId1"/>
@@ -834,12 +834,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="17" fontId="0" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -877,6 +871,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6441,75 +6441,75 @@
   </sheetPr>
   <dimension ref="A1:DP49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="91" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="91" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M39" sqref="M39"/>
+      <selection pane="topRight" activeCell="AB42" sqref="AB42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.88671875" style="2" customWidth="1"/>
-    <col min="2" max="60" width="4.6640625" style="2" customWidth="1"/>
-    <col min="61" max="62" width="4.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="63" max="66" width="4.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="67" max="183" width="3.109375" style="2" customWidth="1"/>
-    <col min="184" max="16384" width="11.5546875" style="2"/>
+    <col min="1" max="1" width="29.85546875" style="2" customWidth="1"/>
+    <col min="2" max="60" width="4.7109375" style="2" customWidth="1"/>
+    <col min="61" max="62" width="4.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="63" max="66" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="67" max="183" width="3.140625" style="2" customWidth="1"/>
+    <col min="184" max="16384" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:120" x14ac:dyDescent="0.3">
-      <c r="B1" s="57">
+    <row r="1" spans="1:120" x14ac:dyDescent="0.25">
+      <c r="B1" s="55">
         <v>44287</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
     </row>
-    <row r="2" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
-      <c r="B2" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56" t="s">
+      <c r="B2" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56" t="s">
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56" t="s">
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
       <c r="BO2" s="1"/>
       <c r="BP2" s="1"/>
       <c r="BQ2" s="1"/>
@@ -6565,7 +6565,7 @@
       <c r="DO2" s="1"/>
       <c r="DP2" s="1"/>
     </row>
-    <row r="3" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="3" t="s">
         <v>0</v>
@@ -6628,11 +6628,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:120" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:120" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="58" t="s">
         <v>72</v>
       </c>
       <c r="C4" s="25"/>
@@ -6665,11 +6665,11 @@
       <c r="BW4" s="6"/>
       <c r="BX4" s="6"/>
     </row>
-    <row r="5" spans="1:120" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:120" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="61"/>
+      <c r="B5" s="59"/>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
       <c r="E5" s="26"/>
@@ -6700,11 +6700,11 @@
       <c r="BW5" s="6"/>
       <c r="BX5" s="6"/>
     </row>
-    <row r="6" spans="1:120" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:120" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="61"/>
+      <c r="B6" s="59"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
       <c r="E6" s="8"/>
@@ -6735,11 +6735,11 @@
       <c r="BW6" s="6"/>
       <c r="BX6" s="6"/>
     </row>
-    <row r="7" spans="1:120" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:120" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="61"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -6770,11 +6770,11 @@
       <c r="BW7" s="6"/>
       <c r="BX7" s="6"/>
     </row>
-    <row r="8" spans="1:120" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:120" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="61"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -6805,11 +6805,11 @@
       <c r="BW8" s="6"/>
       <c r="BX8" s="6"/>
     </row>
-    <row r="9" spans="1:120" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:120" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="61"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -6840,11 +6840,11 @@
       <c r="BW9" s="6"/>
       <c r="BX9" s="6"/>
     </row>
-    <row r="10" spans="1:120" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:120" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="61"/>
+      <c r="B10" s="59"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -6875,11 +6875,11 @@
       <c r="BW10" s="6"/>
       <c r="BX10" s="6"/>
     </row>
-    <row r="11" spans="1:120" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:120" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="61"/>
+      <c r="B11" s="59"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -6910,11 +6910,11 @@
       <c r="BW11" s="6"/>
       <c r="BX11" s="6"/>
     </row>
-    <row r="12" spans="1:120" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:120" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="61"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -6945,11 +6945,11 @@
       <c r="BW12" s="6"/>
       <c r="BX12" s="6"/>
     </row>
-    <row r="13" spans="1:120" s="44" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:120" s="44" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="62"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
@@ -6980,30 +6980,30 @@
       <c r="BW13" s="43"/>
       <c r="BX13" s="43"/>
     </row>
-    <row r="14" spans="1:120" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:120" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
-      <c r="B14" s="57">
+      <c r="B14" s="55">
         <v>44317</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="59"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="59"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="57"/>
       <c r="V14" s="8"/>
       <c r="W14" s="8"/>
       <c r="X14" s="8"/>
@@ -7039,36 +7039,36 @@
       <c r="BB14" s="8"/>
       <c r="BC14" s="8"/>
     </row>
-    <row r="15" spans="1:120" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:120" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="66" t="s">
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="66" t="s">
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="66" t="s">
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="R15" s="67"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="67"/>
-      <c r="U15" s="68"/>
+      <c r="R15" s="65"/>
+      <c r="S15" s="65"/>
+      <c r="T15" s="65"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="8"/>
       <c r="W15" s="8"/>
       <c r="X15" s="8"/>
@@ -7104,7 +7104,7 @@
       <c r="BB15" s="8"/>
       <c r="BC15" s="8"/>
     </row>
-    <row r="16" spans="1:120" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:120" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="4" t="s">
         <v>32</v>
@@ -7201,7 +7201,7 @@
       <c r="BB16" s="8"/>
       <c r="BC16" s="8"/>
     </row>
-    <row r="17" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:76" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>73</v>
       </c>
@@ -7213,7 +7213,7 @@
       <c r="G17" s="16"/>
       <c r="H17" s="25"/>
       <c r="I17" s="16"/>
-      <c r="J17" s="63" t="s">
+      <c r="J17" s="61" t="s">
         <v>72</v>
       </c>
       <c r="K17" s="17"/>
@@ -7262,7 +7262,7 @@
       <c r="BB17" s="8"/>
       <c r="BC17" s="8"/>
     </row>
-    <row r="18" spans="1:76" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:76" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>74</v>
       </c>
@@ -7274,7 +7274,7 @@
       <c r="G18" s="32"/>
       <c r="H18" s="32"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="64"/>
+      <c r="J18" s="62"/>
       <c r="K18" s="19"/>
       <c r="L18" s="8"/>
       <c r="M18" s="26"/>
@@ -7321,7 +7321,7 @@
       <c r="BB18" s="8"/>
       <c r="BC18" s="8"/>
     </row>
-    <row r="19" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:76" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>75</v>
       </c>
@@ -7333,7 +7333,7 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
-      <c r="J19" s="64"/>
+      <c r="J19" s="62"/>
       <c r="K19" s="19"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
@@ -7380,7 +7380,7 @@
       <c r="BB19" s="8"/>
       <c r="BC19" s="8"/>
     </row>
-    <row r="20" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:76" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>76</v>
       </c>
@@ -7392,7 +7392,7 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
-      <c r="J20" s="64"/>
+      <c r="J20" s="62"/>
       <c r="K20" s="19"/>
       <c r="L20" s="14"/>
       <c r="M20" s="8"/>
@@ -7439,7 +7439,7 @@
       <c r="BB20" s="8"/>
       <c r="BC20" s="8"/>
     </row>
-    <row r="21" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:76" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>77</v>
       </c>
@@ -7450,7 +7450,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
-      <c r="J21" s="64"/>
+      <c r="J21" s="62"/>
       <c r="K21" s="19"/>
       <c r="L21" s="30"/>
       <c r="N21" s="30"/>
@@ -7496,7 +7496,7 @@
       <c r="BB21" s="8"/>
       <c r="BC21" s="8"/>
     </row>
-    <row r="22" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:76" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>86</v>
       </c>
@@ -7508,7 +7508,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
-      <c r="J22" s="64"/>
+      <c r="J22" s="62"/>
       <c r="K22" s="19"/>
       <c r="L22" s="30"/>
       <c r="N22" s="8"/>
@@ -7554,7 +7554,7 @@
       <c r="BB22" s="8"/>
       <c r="BC22" s="8"/>
     </row>
-    <row r="23" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:76" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>78</v>
       </c>
@@ -7566,7 +7566,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
-      <c r="J23" s="64"/>
+      <c r="J23" s="62"/>
       <c r="K23" s="19"/>
       <c r="L23" s="30"/>
       <c r="M23" s="30"/>
@@ -7613,7 +7613,7 @@
       <c r="BB23" s="8"/>
       <c r="BC23" s="8"/>
     </row>
-    <row r="24" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:76" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>79</v>
       </c>
@@ -7624,7 +7624,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
-      <c r="J24" s="64"/>
+      <c r="J24" s="62"/>
       <c r="K24" s="19"/>
       <c r="L24" s="30"/>
       <c r="N24" s="30"/>
@@ -7666,7 +7666,7 @@
       <c r="AY24" s="8"/>
       <c r="AZ24" s="8"/>
     </row>
-    <row r="25" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:76" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>81</v>
       </c>
@@ -7677,7 +7677,7 @@
       <c r="G25" s="30"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
-      <c r="J25" s="64"/>
+      <c r="J25" s="62"/>
       <c r="K25" s="19"/>
       <c r="L25" s="30"/>
       <c r="N25" s="30"/>
@@ -7718,7 +7718,7 @@
       <c r="AY25" s="8"/>
       <c r="AZ25" s="8"/>
     </row>
-    <row r="26" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:76" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>80</v>
       </c>
@@ -7730,7 +7730,7 @@
       <c r="G26" s="22"/>
       <c r="H26" s="42"/>
       <c r="I26" s="42"/>
-      <c r="J26" s="65"/>
+      <c r="J26" s="63"/>
       <c r="K26" s="42"/>
       <c r="L26" s="42"/>
       <c r="M26" s="22"/>
@@ -7776,30 +7776,30 @@
       <c r="BW26" s="6"/>
       <c r="BX26" s="6"/>
     </row>
-    <row r="27" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A27" s="45"/>
-      <c r="B27" s="57">
+      <c r="B27" s="55">
         <v>44348</v>
       </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="59"/>
-      <c r="S27" s="59"/>
-      <c r="T27" s="59"/>
-      <c r="U27" s="59"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="57"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="57"/>
+      <c r="U27" s="57"/>
       <c r="V27" s="10"/>
       <c r="W27" s="10"/>
       <c r="X27" s="10"/>
@@ -7831,43 +7831,43 @@
       <c r="AY27" s="10"/>
       <c r="AZ27" s="10"/>
     </row>
-    <row r="28" spans="1:76" x14ac:dyDescent="0.3">
-      <c r="A28" s="55"/>
-      <c r="B28" s="56" t="s">
+    <row r="28" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A28" s="69"/>
+      <c r="B28" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56" t="s">
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56" t="s">
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="M28" s="56"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="56"/>
-      <c r="P28" s="56"/>
-      <c r="Q28" s="56" t="s">
+      <c r="M28" s="68"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="68"/>
+      <c r="Q28" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="R28" s="56"/>
-      <c r="S28" s="56"/>
-      <c r="T28" s="56"/>
-      <c r="U28" s="56"/>
-      <c r="V28" s="56" t="s">
+      <c r="R28" s="68"/>
+      <c r="S28" s="68"/>
+      <c r="T28" s="68"/>
+      <c r="U28" s="68"/>
+      <c r="V28" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="W28" s="56"/>
-      <c r="X28" s="56"/>
-      <c r="Y28" s="56"/>
-      <c r="Z28" s="56"/>
+      <c r="W28" s="68"/>
+      <c r="X28" s="68"/>
+      <c r="Y28" s="68"/>
+      <c r="Z28" s="68"/>
       <c r="AA28" s="10"/>
       <c r="AB28" s="10"/>
       <c r="AC28" s="10"/>
@@ -7894,8 +7894,8 @@
       <c r="AY28" s="10"/>
       <c r="AZ28" s="10"/>
     </row>
-    <row r="29" spans="1:76" x14ac:dyDescent="0.3">
-      <c r="A29" s="55"/>
+    <row r="29" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A29" s="69"/>
       <c r="B29" s="4" t="s">
         <v>52</v>
       </c>
@@ -7993,7 +7993,7 @@
       <c r="AY29" s="10"/>
       <c r="AZ29" s="10"/>
     </row>
-    <row r="30" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:76" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>73</v>
       </c>
@@ -8048,7 +8048,7 @@
       <c r="AY30" s="10"/>
       <c r="AZ30" s="10"/>
     </row>
-    <row r="31" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:76" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>74</v>
       </c>
@@ -8058,8 +8058,7 @@
       <c r="E31" s="8"/>
       <c r="F31" s="19"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
+      <c r="I31" s="32"/>
       <c r="J31" s="8"/>
       <c r="K31" s="19"/>
       <c r="L31" s="20"/>
@@ -8103,7 +8102,7 @@
       <c r="AY31" s="10"/>
       <c r="AZ31" s="10"/>
     </row>
-    <row r="32" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:76" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>75</v>
       </c>
@@ -8133,7 +8132,7 @@
       <c r="Y32" s="38"/>
       <c r="Z32" s="39"/>
     </row>
-    <row r="33" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>76</v>
       </c>
@@ -8143,8 +8142,7 @@
       <c r="E33" s="8"/>
       <c r="F33" s="19"/>
       <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
+      <c r="I33" s="14"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="20"/>
@@ -8163,7 +8161,7 @@
       <c r="Y33" s="38"/>
       <c r="Z33" s="39"/>
     </row>
-    <row r="34" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>77</v>
       </c>
@@ -8173,7 +8171,7 @@
       <c r="E34" s="30"/>
       <c r="F34" s="19"/>
       <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
+      <c r="H34" s="30"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="19"/>
@@ -8193,7 +8191,7 @@
       <c r="Y34" s="38"/>
       <c r="Z34" s="39"/>
     </row>
-    <row r="35" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>86</v>
       </c>
@@ -8203,7 +8201,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="19"/>
       <c r="G35" s="30"/>
-      <c r="H35" s="8"/>
+      <c r="H35" s="30"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="19"/>
@@ -8223,7 +8221,7 @@
       <c r="Y35" s="38"/>
       <c r="Z35" s="39"/>
     </row>
-    <row r="36" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>78</v>
       </c>
@@ -8253,7 +8251,7 @@
       <c r="Y36" s="38"/>
       <c r="Z36" s="39"/>
     </row>
-    <row r="37" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>79</v>
       </c>
@@ -8283,7 +8281,7 @@
       <c r="Y37" s="38"/>
       <c r="Z37" s="39"/>
     </row>
-    <row r="38" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>81</v>
       </c>
@@ -8293,7 +8291,7 @@
       <c r="E38" s="30"/>
       <c r="F38" s="30"/>
       <c r="G38" s="30"/>
-      <c r="H38" s="8"/>
+      <c r="H38" s="30"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="19"/>
@@ -8313,7 +8311,7 @@
       <c r="Y38" s="38"/>
       <c r="Z38" s="39"/>
     </row>
-    <row r="39" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>80</v>
       </c>
@@ -8343,32 +8341,38 @@
       <c r="Y39" s="40"/>
       <c r="Z39" s="41"/>
     </row>
-    <row r="42" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
     </row>
-    <row r="43" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
     </row>
-    <row r="44" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
     </row>
-    <row r="45" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
     </row>
-    <row r="46" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="V28:Z28"/>
+    <mergeCell ref="Q28:U28"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="L28:P28"/>
     <mergeCell ref="B1:U1"/>
     <mergeCell ref="B14:U14"/>
     <mergeCell ref="B27:U27"/>
@@ -8382,12 +8386,6 @@
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="B15:F15"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="V28:Z28"/>
-    <mergeCell ref="Q28:U28"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="L28:P28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8403,13 +8401,13 @@
       <selection sqref="A1:AO32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="10" width="2" bestFit="1" customWidth="1"/>
     <col min="12" max="41" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="70" t="s">
         <v>88</v>
       </c>
@@ -8455,7 +8453,7 @@
       <c r="AN1" s="70"/>
       <c r="AO1" s="70"/>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="70" t="s">
         <v>91</v>
       </c>
@@ -8501,7 +8499,7 @@
       <c r="AN2" s="70"/>
       <c r="AO2" s="70"/>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -8626,7 +8624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -8749,7 +8747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -8872,7 +8870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -8995,7 +8993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -9118,7 +9116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -9241,7 +9239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -9364,7 +9362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -9487,7 +9485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -9610,7 +9608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -9733,7 +9731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="K13" s="71"/>
       <c r="L13">
         <v>0</v>
@@ -9826,7 +9824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="K14" s="71"/>
       <c r="L14">
         <v>0</v>
@@ -9919,7 +9917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="K15" s="71"/>
       <c r="L15">
         <v>0</v>
@@ -10012,7 +10010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="K16" s="71"/>
       <c r="L16">
         <v>0</v>
@@ -10105,7 +10103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="11:41" x14ac:dyDescent="0.3">
+    <row r="17" spans="11:41" x14ac:dyDescent="0.25">
       <c r="K17" s="71"/>
       <c r="L17">
         <v>0</v>
@@ -10198,7 +10196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="11:41" x14ac:dyDescent="0.3">
+    <row r="18" spans="11:41" x14ac:dyDescent="0.25">
       <c r="K18" s="71"/>
       <c r="L18">
         <v>1</v>
@@ -10291,7 +10289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="11:41" x14ac:dyDescent="0.3">
+    <row r="19" spans="11:41" x14ac:dyDescent="0.25">
       <c r="K19" s="71"/>
       <c r="L19">
         <v>1</v>
@@ -10384,7 +10382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="11:41" x14ac:dyDescent="0.3">
+    <row r="20" spans="11:41" x14ac:dyDescent="0.25">
       <c r="K20" s="71"/>
       <c r="L20">
         <v>1</v>
@@ -10477,7 +10475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="11:41" x14ac:dyDescent="0.3">
+    <row r="21" spans="11:41" x14ac:dyDescent="0.25">
       <c r="K21" s="71"/>
       <c r="L21">
         <v>0</v>
@@ -10570,7 +10568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="11:41" x14ac:dyDescent="0.3">
+    <row r="22" spans="11:41" x14ac:dyDescent="0.25">
       <c r="K22" s="71"/>
       <c r="L22">
         <v>0</v>
@@ -10663,7 +10661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="11:41" x14ac:dyDescent="0.3">
+    <row r="23" spans="11:41" x14ac:dyDescent="0.25">
       <c r="K23" s="71"/>
       <c r="L23">
         <v>0</v>
@@ -10756,7 +10754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="11:41" x14ac:dyDescent="0.3">
+    <row r="24" spans="11:41" x14ac:dyDescent="0.25">
       <c r="K24" s="71"/>
       <c r="L24">
         <v>0</v>
@@ -10849,7 +10847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="11:41" x14ac:dyDescent="0.3">
+    <row r="25" spans="11:41" x14ac:dyDescent="0.25">
       <c r="K25" s="71"/>
       <c r="L25">
         <v>0</v>
@@ -10942,7 +10940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="11:41" x14ac:dyDescent="0.3">
+    <row r="26" spans="11:41" x14ac:dyDescent="0.25">
       <c r="K26" s="71"/>
       <c r="L26">
         <v>0</v>
@@ -11035,7 +11033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="11:41" x14ac:dyDescent="0.3">
+    <row r="27" spans="11:41" x14ac:dyDescent="0.25">
       <c r="K27" s="71"/>
       <c r="L27">
         <v>0</v>
@@ -11128,7 +11126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="11:41" x14ac:dyDescent="0.3">
+    <row r="28" spans="11:41" x14ac:dyDescent="0.25">
       <c r="K28" s="71"/>
       <c r="L28">
         <v>0</v>
@@ -11221,7 +11219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="11:41" x14ac:dyDescent="0.3">
+    <row r="29" spans="11:41" x14ac:dyDescent="0.25">
       <c r="K29" s="71"/>
       <c r="L29">
         <v>0</v>
@@ -11314,7 +11312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="11:41" x14ac:dyDescent="0.3">
+    <row r="30" spans="11:41" x14ac:dyDescent="0.25">
       <c r="K30" s="71"/>
       <c r="L30">
         <v>0</v>
@@ -11407,7 +11405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="11:41" x14ac:dyDescent="0.3">
+    <row r="31" spans="11:41" x14ac:dyDescent="0.25">
       <c r="K31" s="71"/>
       <c r="L31">
         <v>0</v>
@@ -11500,7 +11498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="11:41" x14ac:dyDescent="0.3">
+    <row r="32" spans="11:41" x14ac:dyDescent="0.25">
       <c r="K32" s="71"/>
       <c r="L32">
         <v>0</v>
@@ -11894,13 +11892,13 @@
       <selection activeCell="AX25" sqref="AX25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="10" width="2" bestFit="1" customWidth="1"/>
     <col min="12" max="41" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="70" t="s">
         <v>88</v>
       </c>
@@ -11946,7 +11944,7 @@
       <c r="AN1" s="70"/>
       <c r="AO1" s="70"/>
     </row>
-    <row r="2" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="70" t="s">
         <v>91</v>
       </c>
@@ -11992,7 +11990,7 @@
       <c r="AN2" s="70"/>
       <c r="AO2" s="70"/>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -12117,7 +12115,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -12240,7 +12238,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -12363,7 +12361,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -12486,7 +12484,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -12609,7 +12607,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -12732,7 +12730,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -12855,7 +12853,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -12978,7 +12976,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -13101,7 +13099,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -13224,7 +13222,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="K13" s="71"/>
       <c r="L13" s="49" t="s">
         <v>87</v>
@@ -13317,7 +13315,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="K14" s="71"/>
       <c r="L14" s="49" t="s">
         <v>87</v>
@@ -13410,7 +13408,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="K15" s="71"/>
       <c r="L15" s="49">
         <v>0</v>
@@ -13503,7 +13501,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="K16" s="71"/>
       <c r="L16" s="49" t="s">
         <v>87</v>
@@ -13596,7 +13594,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="11:41" x14ac:dyDescent="0.3">
+    <row r="17" spans="11:41" x14ac:dyDescent="0.25">
       <c r="K17" s="71"/>
       <c r="L17" s="49" t="s">
         <v>87</v>
@@ -13689,7 +13687,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="11:41" x14ac:dyDescent="0.3">
+    <row r="18" spans="11:41" x14ac:dyDescent="0.25">
       <c r="K18" s="71"/>
       <c r="L18" s="49">
         <v>1</v>
@@ -13782,7 +13780,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="11:41" x14ac:dyDescent="0.3">
+    <row r="19" spans="11:41" x14ac:dyDescent="0.25">
       <c r="K19" s="71"/>
       <c r="L19" s="49" t="s">
         <v>87</v>
@@ -13875,7 +13873,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="11:41" x14ac:dyDescent="0.3">
+    <row r="20" spans="11:41" x14ac:dyDescent="0.25">
       <c r="K20" s="71"/>
       <c r="L20" s="49" t="s">
         <v>87</v>
@@ -13968,7 +13966,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="11:41" x14ac:dyDescent="0.3">
+    <row r="21" spans="11:41" x14ac:dyDescent="0.25">
       <c r="K21" s="71"/>
       <c r="L21" s="49">
         <v>0</v>
@@ -14061,7 +14059,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="11:41" x14ac:dyDescent="0.3">
+    <row r="22" spans="11:41" x14ac:dyDescent="0.25">
       <c r="K22" s="71"/>
       <c r="L22" s="49" t="s">
         <v>87</v>
@@ -14154,7 +14152,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="11:41" x14ac:dyDescent="0.3">
+    <row r="23" spans="11:41" x14ac:dyDescent="0.25">
       <c r="K23" s="71"/>
       <c r="L23" s="49" t="s">
         <v>87</v>
@@ -14247,7 +14245,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="11:41" x14ac:dyDescent="0.3">
+    <row r="24" spans="11:41" x14ac:dyDescent="0.25">
       <c r="K24" s="71"/>
       <c r="L24" s="49">
         <v>0</v>
@@ -14340,7 +14338,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="11:41" x14ac:dyDescent="0.3">
+    <row r="25" spans="11:41" x14ac:dyDescent="0.25">
       <c r="K25" s="71"/>
       <c r="L25" s="49" t="s">
         <v>87</v>
@@ -14433,7 +14431,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="11:41" x14ac:dyDescent="0.3">
+    <row r="26" spans="11:41" x14ac:dyDescent="0.25">
       <c r="K26" s="71"/>
       <c r="L26" s="49" t="s">
         <v>87</v>
@@ -14526,7 +14524,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="11:41" x14ac:dyDescent="0.3">
+    <row r="27" spans="11:41" x14ac:dyDescent="0.25">
       <c r="K27" s="71"/>
       <c r="L27" s="49">
         <v>0</v>
@@ -14619,7 +14617,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="11:41" x14ac:dyDescent="0.3">
+    <row r="28" spans="11:41" x14ac:dyDescent="0.25">
       <c r="K28" s="71"/>
       <c r="L28" s="49" t="s">
         <v>87</v>
@@ -14712,7 +14710,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="11:41" x14ac:dyDescent="0.3">
+    <row r="29" spans="11:41" x14ac:dyDescent="0.25">
       <c r="K29" s="71"/>
       <c r="L29" s="49" t="s">
         <v>87</v>
@@ -14805,7 +14803,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="11:41" x14ac:dyDescent="0.3">
+    <row r="30" spans="11:41" x14ac:dyDescent="0.25">
       <c r="K30" s="71"/>
       <c r="L30" s="49">
         <v>0</v>
@@ -14898,7 +14896,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="11:41" x14ac:dyDescent="0.3">
+    <row r="31" spans="11:41" x14ac:dyDescent="0.25">
       <c r="K31" s="71"/>
       <c r="L31" s="49"/>
       <c r="M31" s="50"/>
@@ -14931,7 +14929,7 @@
       <c r="AN31" s="50"/>
       <c r="AO31" s="51"/>
     </row>
-    <row r="32" spans="11:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="11:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K32" s="71"/>
       <c r="L32" s="52"/>
       <c r="M32" s="53"/>

--- a/Suivi stage/Rapport/Diagramme_Gantt.xlsx
+++ b/Suivi stage/Rapport/Diagramme_Gantt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\6.Stages\Stage\Figures_Navon\Suivi stage\Rapport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7948DFC9-A10C-424C-9F8A-D08237773DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DA0CCF-29EF-4BAE-B042-2A6F946AF982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="2730" windowWidth="28110" windowHeight="15825" xr2:uid="{B4B8E8EA-138B-473A-9D55-76C5F15EC42F}"/>
+    <workbookView xWindow="888" yWindow="-108" windowWidth="22260" windowHeight="13176" xr2:uid="{B4B8E8EA-138B-473A-9D55-76C5F15EC42F}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="1" r:id="rId1"/>
@@ -834,6 +834,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="17" fontId="0" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -871,12 +877,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6441,75 +6441,75 @@
   </sheetPr>
   <dimension ref="A1:DP49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="91" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB42" sqref="AB42"/>
+      <selection pane="topRight" activeCell="AN24" sqref="AN24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" style="2" customWidth="1"/>
-    <col min="2" max="60" width="4.7109375" style="2" customWidth="1"/>
-    <col min="61" max="62" width="4.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="63" max="66" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="67" max="183" width="3.140625" style="2" customWidth="1"/>
-    <col min="184" max="16384" width="11.5703125" style="2"/>
+    <col min="1" max="1" width="29.88671875" style="2" customWidth="1"/>
+    <col min="2" max="60" width="4.6640625" style="2" customWidth="1"/>
+    <col min="61" max="62" width="4.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="63" max="66" width="4.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="67" max="183" width="3.109375" style="2" customWidth="1"/>
+    <col min="184" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:120" x14ac:dyDescent="0.25">
-      <c r="B1" s="55">
+    <row r="1" spans="1:120" x14ac:dyDescent="0.3">
+      <c r="B1" s="57">
         <v>44287</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
     </row>
-    <row r="2" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
-      <c r="B2" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68" t="s">
+      <c r="B2" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68" t="s">
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68" t="s">
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
       <c r="BO2" s="1"/>
       <c r="BP2" s="1"/>
       <c r="BQ2" s="1"/>
@@ -6565,7 +6565,7 @@
       <c r="DO2" s="1"/>
       <c r="DP2" s="1"/>
     </row>
-    <row r="3" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
       <c r="B3" s="3" t="s">
         <v>0</v>
@@ -6628,11 +6628,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:120" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:120" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="60" t="s">
         <v>72</v>
       </c>
       <c r="C4" s="25"/>
@@ -6665,11 +6665,11 @@
       <c r="BW4" s="6"/>
       <c r="BX4" s="6"/>
     </row>
-    <row r="5" spans="1:120" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:120" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="59"/>
+      <c r="B5" s="61"/>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
       <c r="E5" s="26"/>
@@ -6700,11 +6700,11 @@
       <c r="BW5" s="6"/>
       <c r="BX5" s="6"/>
     </row>
-    <row r="6" spans="1:120" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:120" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="59"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
       <c r="E6" s="8"/>
@@ -6735,11 +6735,11 @@
       <c r="BW6" s="6"/>
       <c r="BX6" s="6"/>
     </row>
-    <row r="7" spans="1:120" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:120" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="59"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -6770,11 +6770,11 @@
       <c r="BW7" s="6"/>
       <c r="BX7" s="6"/>
     </row>
-    <row r="8" spans="1:120" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:120" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="59"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -6805,11 +6805,11 @@
       <c r="BW8" s="6"/>
       <c r="BX8" s="6"/>
     </row>
-    <row r="9" spans="1:120" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:120" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="59"/>
+      <c r="B9" s="61"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -6840,11 +6840,11 @@
       <c r="BW9" s="6"/>
       <c r="BX9" s="6"/>
     </row>
-    <row r="10" spans="1:120" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:120" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="59"/>
+      <c r="B10" s="61"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -6875,11 +6875,11 @@
       <c r="BW10" s="6"/>
       <c r="BX10" s="6"/>
     </row>
-    <row r="11" spans="1:120" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:120" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="59"/>
+      <c r="B11" s="61"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -6910,11 +6910,11 @@
       <c r="BW11" s="6"/>
       <c r="BX11" s="6"/>
     </row>
-    <row r="12" spans="1:120" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:120" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="59"/>
+      <c r="B12" s="61"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -6945,11 +6945,11 @@
       <c r="BW12" s="6"/>
       <c r="BX12" s="6"/>
     </row>
-    <row r="13" spans="1:120" s="44" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:120" s="44" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="60"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
@@ -6980,30 +6980,30 @@
       <c r="BW13" s="43"/>
       <c r="BX13" s="43"/>
     </row>
-    <row r="14" spans="1:120" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:120" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
-      <c r="B14" s="55">
+      <c r="B14" s="57">
         <v>44317</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="57"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="59"/>
       <c r="V14" s="8"/>
       <c r="W14" s="8"/>
       <c r="X14" s="8"/>
@@ -7039,36 +7039,36 @@
       <c r="BB14" s="8"/>
       <c r="BC14" s="8"/>
     </row>
-    <row r="15" spans="1:120" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:120" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="64" t="s">
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="64" t="s">
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="64" t="s">
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="R15" s="65"/>
-      <c r="S15" s="65"/>
-      <c r="T15" s="65"/>
-      <c r="U15" s="66"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="67"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="8"/>
       <c r="W15" s="8"/>
       <c r="X15" s="8"/>
@@ -7104,7 +7104,7 @@
       <c r="BB15" s="8"/>
       <c r="BC15" s="8"/>
     </row>
-    <row r="16" spans="1:120" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:120" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
       <c r="B16" s="4" t="s">
         <v>32</v>
@@ -7201,7 +7201,7 @@
       <c r="BB16" s="8"/>
       <c r="BC16" s="8"/>
     </row>
-    <row r="17" spans="1:76" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>73</v>
       </c>
@@ -7213,7 +7213,7 @@
       <c r="G17" s="16"/>
       <c r="H17" s="25"/>
       <c r="I17" s="16"/>
-      <c r="J17" s="61" t="s">
+      <c r="J17" s="63" t="s">
         <v>72</v>
       </c>
       <c r="K17" s="17"/>
@@ -7262,7 +7262,7 @@
       <c r="BB17" s="8"/>
       <c r="BC17" s="8"/>
     </row>
-    <row r="18" spans="1:76" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:76" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>74</v>
       </c>
@@ -7274,7 +7274,7 @@
       <c r="G18" s="32"/>
       <c r="H18" s="32"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="62"/>
+      <c r="J18" s="64"/>
       <c r="K18" s="19"/>
       <c r="L18" s="8"/>
       <c r="M18" s="26"/>
@@ -7321,7 +7321,7 @@
       <c r="BB18" s="8"/>
       <c r="BC18" s="8"/>
     </row>
-    <row r="19" spans="1:76" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>75</v>
       </c>
@@ -7333,7 +7333,7 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
-      <c r="J19" s="62"/>
+      <c r="J19" s="64"/>
       <c r="K19" s="19"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
@@ -7380,7 +7380,7 @@
       <c r="BB19" s="8"/>
       <c r="BC19" s="8"/>
     </row>
-    <row r="20" spans="1:76" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>76</v>
       </c>
@@ -7392,7 +7392,7 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
-      <c r="J20" s="62"/>
+      <c r="J20" s="64"/>
       <c r="K20" s="19"/>
       <c r="L20" s="14"/>
       <c r="M20" s="8"/>
@@ -7439,7 +7439,7 @@
       <c r="BB20" s="8"/>
       <c r="BC20" s="8"/>
     </row>
-    <row r="21" spans="1:76" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>77</v>
       </c>
@@ -7450,7 +7450,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
-      <c r="J21" s="62"/>
+      <c r="J21" s="64"/>
       <c r="K21" s="19"/>
       <c r="L21" s="30"/>
       <c r="N21" s="30"/>
@@ -7496,7 +7496,7 @@
       <c r="BB21" s="8"/>
       <c r="BC21" s="8"/>
     </row>
-    <row r="22" spans="1:76" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>86</v>
       </c>
@@ -7508,7 +7508,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
-      <c r="J22" s="62"/>
+      <c r="J22" s="64"/>
       <c r="K22" s="19"/>
       <c r="L22" s="30"/>
       <c r="N22" s="8"/>
@@ -7554,7 +7554,7 @@
       <c r="BB22" s="8"/>
       <c r="BC22" s="8"/>
     </row>
-    <row r="23" spans="1:76" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>78</v>
       </c>
@@ -7566,7 +7566,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
-      <c r="J23" s="62"/>
+      <c r="J23" s="64"/>
       <c r="K23" s="19"/>
       <c r="L23" s="30"/>
       <c r="M23" s="30"/>
@@ -7613,7 +7613,7 @@
       <c r="BB23" s="8"/>
       <c r="BC23" s="8"/>
     </row>
-    <row r="24" spans="1:76" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>79</v>
       </c>
@@ -7624,7 +7624,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
-      <c r="J24" s="62"/>
+      <c r="J24" s="64"/>
       <c r="K24" s="19"/>
       <c r="L24" s="30"/>
       <c r="N24" s="30"/>
@@ -7666,7 +7666,7 @@
       <c r="AY24" s="8"/>
       <c r="AZ24" s="8"/>
     </row>
-    <row r="25" spans="1:76" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>81</v>
       </c>
@@ -7677,7 +7677,7 @@
       <c r="G25" s="30"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
-      <c r="J25" s="62"/>
+      <c r="J25" s="64"/>
       <c r="K25" s="19"/>
       <c r="L25" s="30"/>
       <c r="N25" s="30"/>
@@ -7718,7 +7718,7 @@
       <c r="AY25" s="8"/>
       <c r="AZ25" s="8"/>
     </row>
-    <row r="26" spans="1:76" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>80</v>
       </c>
@@ -7730,7 +7730,7 @@
       <c r="G26" s="22"/>
       <c r="H26" s="42"/>
       <c r="I26" s="42"/>
-      <c r="J26" s="63"/>
+      <c r="J26" s="65"/>
       <c r="K26" s="42"/>
       <c r="L26" s="42"/>
       <c r="M26" s="22"/>
@@ -7776,30 +7776,30 @@
       <c r="BW26" s="6"/>
       <c r="BX26" s="6"/>
     </row>
-    <row r="27" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A27" s="45"/>
-      <c r="B27" s="55">
+      <c r="B27" s="57">
         <v>44348</v>
       </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="57"/>
-      <c r="R27" s="57"/>
-      <c r="S27" s="57"/>
-      <c r="T27" s="57"/>
-      <c r="U27" s="57"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="59"/>
+      <c r="T27" s="59"/>
+      <c r="U27" s="59"/>
       <c r="V27" s="10"/>
       <c r="W27" s="10"/>
       <c r="X27" s="10"/>
@@ -7831,43 +7831,43 @@
       <c r="AY27" s="10"/>
       <c r="AZ27" s="10"/>
     </row>
-    <row r="28" spans="1:76" x14ac:dyDescent="0.25">
-      <c r="A28" s="69"/>
-      <c r="B28" s="68" t="s">
+    <row r="28" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A28" s="55"/>
+      <c r="B28" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68" t="s">
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68" t="s">
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="M28" s="68"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="68"/>
-      <c r="P28" s="68"/>
-      <c r="Q28" s="68" t="s">
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="R28" s="68"/>
-      <c r="S28" s="68"/>
-      <c r="T28" s="68"/>
-      <c r="U28" s="68"/>
-      <c r="V28" s="68" t="s">
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="56"/>
+      <c r="V28" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="W28" s="68"/>
-      <c r="X28" s="68"/>
-      <c r="Y28" s="68"/>
-      <c r="Z28" s="68"/>
+      <c r="W28" s="56"/>
+      <c r="X28" s="56"/>
+      <c r="Y28" s="56"/>
+      <c r="Z28" s="56"/>
       <c r="AA28" s="10"/>
       <c r="AB28" s="10"/>
       <c r="AC28" s="10"/>
@@ -7894,8 +7894,8 @@
       <c r="AY28" s="10"/>
       <c r="AZ28" s="10"/>
     </row>
-    <row r="29" spans="1:76" x14ac:dyDescent="0.25">
-      <c r="A29" s="69"/>
+    <row r="29" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A29" s="55"/>
       <c r="B29" s="4" t="s">
         <v>52</v>
       </c>
@@ -7993,7 +7993,7 @@
       <c r="AY29" s="10"/>
       <c r="AZ29" s="10"/>
     </row>
-    <row r="30" spans="1:76" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>73</v>
       </c>
@@ -8048,7 +8048,7 @@
       <c r="AY30" s="10"/>
       <c r="AZ30" s="10"/>
     </row>
-    <row r="31" spans="1:76" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>74</v>
       </c>
@@ -8102,7 +8102,7 @@
       <c r="AY31" s="10"/>
       <c r="AZ31" s="10"/>
     </row>
-    <row r="32" spans="1:76" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>75</v>
       </c>
@@ -8132,7 +8132,7 @@
       <c r="Y32" s="38"/>
       <c r="Z32" s="39"/>
     </row>
-    <row r="33" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>76</v>
       </c>
@@ -8143,8 +8143,8 @@
       <c r="F33" s="19"/>
       <c r="G33" s="8"/>
       <c r="I33" s="14"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
       <c r="L33" s="20"/>
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
@@ -8161,7 +8161,7 @@
       <c r="Y33" s="38"/>
       <c r="Z33" s="39"/>
     </row>
-    <row r="34" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>77</v>
       </c>
@@ -8173,7 +8173,7 @@
       <c r="G34" s="8"/>
       <c r="H34" s="30"/>
       <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
+      <c r="J34" s="30"/>
       <c r="K34" s="19"/>
       <c r="L34" s="20"/>
       <c r="M34" s="8"/>
@@ -8191,7 +8191,7 @@
       <c r="Y34" s="38"/>
       <c r="Z34" s="39"/>
     </row>
-    <row r="35" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>86</v>
       </c>
@@ -8221,7 +8221,7 @@
       <c r="Y35" s="38"/>
       <c r="Z35" s="39"/>
     </row>
-    <row r="36" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>78</v>
       </c>
@@ -8251,7 +8251,7 @@
       <c r="Y36" s="38"/>
       <c r="Z36" s="39"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>79</v>
       </c>
@@ -8281,7 +8281,7 @@
       <c r="Y37" s="38"/>
       <c r="Z37" s="39"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>81</v>
       </c>
@@ -8311,7 +8311,7 @@
       <c r="Y38" s="38"/>
       <c r="Z38" s="39"/>
     </row>
-    <row r="39" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>80</v>
       </c>
@@ -8323,7 +8323,7 @@
       <c r="G39" s="42"/>
       <c r="H39" s="22"/>
       <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
+      <c r="J39" s="42"/>
       <c r="K39" s="23"/>
       <c r="L39" s="24"/>
       <c r="M39" s="22"/>
@@ -8341,38 +8341,32 @@
       <c r="Y39" s="40"/>
       <c r="Z39" s="41"/>
     </row>
-    <row r="42" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
     </row>
-    <row r="43" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
     </row>
-    <row r="44" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
     </row>
-    <row r="45" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
     </row>
-    <row r="46" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48" s="9"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="V28:Z28"/>
-    <mergeCell ref="Q28:U28"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="L28:P28"/>
     <mergeCell ref="B1:U1"/>
     <mergeCell ref="B14:U14"/>
     <mergeCell ref="B27:U27"/>
@@ -8386,6 +8380,12 @@
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="B15:F15"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="V28:Z28"/>
+    <mergeCell ref="Q28:U28"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="L28:P28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8401,13 +8401,13 @@
       <selection sqref="A1:AO32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="10" width="2" bestFit="1" customWidth="1"/>
     <col min="12" max="41" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A1" s="70" t="s">
         <v>88</v>
       </c>
@@ -8453,7 +8453,7 @@
       <c r="AN1" s="70"/>
       <c r="AO1" s="70"/>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A2" s="70" t="s">
         <v>91</v>
       </c>
@@ -8499,7 +8499,7 @@
       <c r="AN2" s="70"/>
       <c r="AO2" s="70"/>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -8624,7 +8624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -8747,7 +8747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -8870,7 +8870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -8993,7 +8993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -9116,7 +9116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -9362,7 +9362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
@@ -9485,7 +9485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0</v>
       </c>
@@ -9608,7 +9608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -9731,7 +9731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
       <c r="K13" s="71"/>
       <c r="L13">
         <v>0</v>
@@ -9824,7 +9824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
       <c r="K14" s="71"/>
       <c r="L14">
         <v>0</v>
@@ -9917,7 +9917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
       <c r="K15" s="71"/>
       <c r="L15">
         <v>0</v>
@@ -10010,7 +10010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
       <c r="K16" s="71"/>
       <c r="L16">
         <v>0</v>
@@ -10103,7 +10103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="11:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="11:41" x14ac:dyDescent="0.3">
       <c r="K17" s="71"/>
       <c r="L17">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="11:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="11:41" x14ac:dyDescent="0.3">
       <c r="K18" s="71"/>
       <c r="L18">
         <v>1</v>
@@ -10289,7 +10289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="11:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="11:41" x14ac:dyDescent="0.3">
       <c r="K19" s="71"/>
       <c r="L19">
         <v>1</v>
@@ -10382,7 +10382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="11:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="11:41" x14ac:dyDescent="0.3">
       <c r="K20" s="71"/>
       <c r="L20">
         <v>1</v>
@@ -10475,7 +10475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="11:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="11:41" x14ac:dyDescent="0.3">
       <c r="K21" s="71"/>
       <c r="L21">
         <v>0</v>
@@ -10568,7 +10568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="11:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="11:41" x14ac:dyDescent="0.3">
       <c r="K22" s="71"/>
       <c r="L22">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="11:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="11:41" x14ac:dyDescent="0.3">
       <c r="K23" s="71"/>
       <c r="L23">
         <v>0</v>
@@ -10754,7 +10754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="11:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="11:41" x14ac:dyDescent="0.3">
       <c r="K24" s="71"/>
       <c r="L24">
         <v>0</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="11:41" x14ac:dyDescent="0.25">
+    <row r="25" spans="11:41" x14ac:dyDescent="0.3">
       <c r="K25" s="71"/>
       <c r="L25">
         <v>0</v>
@@ -10940,7 +10940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="11:41" x14ac:dyDescent="0.25">
+    <row r="26" spans="11:41" x14ac:dyDescent="0.3">
       <c r="K26" s="71"/>
       <c r="L26">
         <v>0</v>
@@ -11033,7 +11033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="11:41" x14ac:dyDescent="0.25">
+    <row r="27" spans="11:41" x14ac:dyDescent="0.3">
       <c r="K27" s="71"/>
       <c r="L27">
         <v>0</v>
@@ -11126,7 +11126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="11:41" x14ac:dyDescent="0.25">
+    <row r="28" spans="11:41" x14ac:dyDescent="0.3">
       <c r="K28" s="71"/>
       <c r="L28">
         <v>0</v>
@@ -11219,7 +11219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="11:41" x14ac:dyDescent="0.25">
+    <row r="29" spans="11:41" x14ac:dyDescent="0.3">
       <c r="K29" s="71"/>
       <c r="L29">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="11:41" x14ac:dyDescent="0.25">
+    <row r="30" spans="11:41" x14ac:dyDescent="0.3">
       <c r="K30" s="71"/>
       <c r="L30">
         <v>0</v>
@@ -11405,7 +11405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="11:41" x14ac:dyDescent="0.25">
+    <row r="31" spans="11:41" x14ac:dyDescent="0.3">
       <c r="K31" s="71"/>
       <c r="L31">
         <v>0</v>
@@ -11498,7 +11498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="11:41" x14ac:dyDescent="0.25">
+    <row r="32" spans="11:41" x14ac:dyDescent="0.3">
       <c r="K32" s="71"/>
       <c r="L32">
         <v>0</v>
@@ -11892,13 +11892,13 @@
       <selection activeCell="AX25" sqref="AX25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="10" width="2" bestFit="1" customWidth="1"/>
     <col min="12" max="41" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A1" s="70" t="s">
         <v>88</v>
       </c>
@@ -11944,7 +11944,7 @@
       <c r="AN1" s="70"/>
       <c r="AO1" s="70"/>
     </row>
-    <row r="2" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="70" t="s">
         <v>91</v>
       </c>
@@ -11990,7 +11990,7 @@
       <c r="AN2" s="70"/>
       <c r="AO2" s="70"/>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -12115,7 +12115,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -12238,7 +12238,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -12361,7 +12361,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -12484,7 +12484,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -12607,7 +12607,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -12730,7 +12730,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -12853,7 +12853,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
@@ -12976,7 +12976,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0</v>
       </c>
@@ -13099,7 +13099,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -13222,7 +13222,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
       <c r="K13" s="71"/>
       <c r="L13" s="49" t="s">
         <v>87</v>
@@ -13315,7 +13315,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
       <c r="K14" s="71"/>
       <c r="L14" s="49" t="s">
         <v>87</v>
@@ -13408,7 +13408,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
       <c r="K15" s="71"/>
       <c r="L15" s="49">
         <v>0</v>
@@ -13501,7 +13501,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
       <c r="K16" s="71"/>
       <c r="L16" s="49" t="s">
         <v>87</v>
@@ -13594,7 +13594,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="11:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="11:41" x14ac:dyDescent="0.3">
       <c r="K17" s="71"/>
       <c r="L17" s="49" t="s">
         <v>87</v>
@@ -13687,7 +13687,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="11:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="11:41" x14ac:dyDescent="0.3">
       <c r="K18" s="71"/>
       <c r="L18" s="49">
         <v>1</v>
@@ -13780,7 +13780,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="11:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="11:41" x14ac:dyDescent="0.3">
       <c r="K19" s="71"/>
       <c r="L19" s="49" t="s">
         <v>87</v>
@@ -13873,7 +13873,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="11:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="11:41" x14ac:dyDescent="0.3">
       <c r="K20" s="71"/>
       <c r="L20" s="49" t="s">
         <v>87</v>
@@ -13966,7 +13966,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="11:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="11:41" x14ac:dyDescent="0.3">
       <c r="K21" s="71"/>
       <c r="L21" s="49">
         <v>0</v>
@@ -14059,7 +14059,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="11:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="11:41" x14ac:dyDescent="0.3">
       <c r="K22" s="71"/>
       <c r="L22" s="49" t="s">
         <v>87</v>
@@ -14152,7 +14152,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="11:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="11:41" x14ac:dyDescent="0.3">
       <c r="K23" s="71"/>
       <c r="L23" s="49" t="s">
         <v>87</v>
@@ -14245,7 +14245,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="11:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="11:41" x14ac:dyDescent="0.3">
       <c r="K24" s="71"/>
       <c r="L24" s="49">
         <v>0</v>
@@ -14338,7 +14338,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="11:41" x14ac:dyDescent="0.25">
+    <row r="25" spans="11:41" x14ac:dyDescent="0.3">
       <c r="K25" s="71"/>
       <c r="L25" s="49" t="s">
         <v>87</v>
@@ -14431,7 +14431,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="11:41" x14ac:dyDescent="0.25">
+    <row r="26" spans="11:41" x14ac:dyDescent="0.3">
       <c r="K26" s="71"/>
       <c r="L26" s="49" t="s">
         <v>87</v>
@@ -14524,7 +14524,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="11:41" x14ac:dyDescent="0.25">
+    <row r="27" spans="11:41" x14ac:dyDescent="0.3">
       <c r="K27" s="71"/>
       <c r="L27" s="49">
         <v>0</v>
@@ -14617,7 +14617,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="11:41" x14ac:dyDescent="0.25">
+    <row r="28" spans="11:41" x14ac:dyDescent="0.3">
       <c r="K28" s="71"/>
       <c r="L28" s="49" t="s">
         <v>87</v>
@@ -14710,7 +14710,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="11:41" x14ac:dyDescent="0.25">
+    <row r="29" spans="11:41" x14ac:dyDescent="0.3">
       <c r="K29" s="71"/>
       <c r="L29" s="49" t="s">
         <v>87</v>
@@ -14803,7 +14803,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="11:41" x14ac:dyDescent="0.25">
+    <row r="30" spans="11:41" x14ac:dyDescent="0.3">
       <c r="K30" s="71"/>
       <c r="L30" s="49">
         <v>0</v>
@@ -14896,7 +14896,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="11:41" x14ac:dyDescent="0.25">
+    <row r="31" spans="11:41" x14ac:dyDescent="0.3">
       <c r="K31" s="71"/>
       <c r="L31" s="49"/>
       <c r="M31" s="50"/>
@@ -14929,7 +14929,7 @@
       <c r="AN31" s="50"/>
       <c r="AO31" s="51"/>
     </row>
-    <row r="32" spans="11:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="11:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K32" s="71"/>
       <c r="L32" s="52"/>
       <c r="M32" s="53"/>

--- a/Suivi stage/Rapport/Diagramme_Gantt.xlsx
+++ b/Suivi stage/Rapport/Diagramme_Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\6.Stages\Stage\Figures_Navon\Suivi stage\Rapport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DA0CCF-29EF-4BAE-B042-2A6F946AF982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3C8C45-565F-47F0-A4EE-83A592CBE26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="888" yWindow="-108" windowWidth="22260" windowHeight="13176" xr2:uid="{B4B8E8EA-138B-473A-9D55-76C5F15EC42F}"/>
   </bookViews>
@@ -6441,9 +6441,9 @@
   </sheetPr>
   <dimension ref="A1:DP49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="82" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AN24" sqref="AN24"/>
+      <selection pane="topRight" activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8003,12 +8003,12 @@
       <c r="E30" s="16"/>
       <c r="F30" s="17"/>
       <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
+      <c r="H30" s="25"/>
       <c r="I30" s="16"/>
       <c r="J30" s="16"/>
       <c r="K30" s="17"/>
       <c r="L30" s="18"/>
-      <c r="M30" s="16"/>
+      <c r="M30" s="25"/>
       <c r="N30" s="16"/>
       <c r="O30" s="16"/>
       <c r="P30" s="17"/>
@@ -8145,11 +8145,11 @@
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
       <c r="K33" s="14"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="19"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
       <c r="Q33" s="20"/>
       <c r="R33" s="8"/>
       <c r="S33" s="8"/>
@@ -8179,7 +8179,7 @@
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
-      <c r="P34" s="19"/>
+      <c r="P34" s="30"/>
       <c r="Q34" s="20"/>
       <c r="R34" s="8"/>
       <c r="S34" s="8"/>
@@ -8325,7 +8325,7 @@
       <c r="I39" s="22"/>
       <c r="J39" s="42"/>
       <c r="K39" s="23"/>
-      <c r="L39" s="24"/>
+      <c r="L39" s="42"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
